--- a/csv2xlsx/example/template5.xlsx
+++ b/csv2xlsx/example/template5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\da\Src\Go\src\github.com\mentax\csv2xlsx\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\da\Src\Git\go\csv2xlsx\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED75E2-1955-472B-9DF9-22A8F9FBAC60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F238B-064B-4496-837C-01D404ED2BBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="28800" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="1005" windowWidth="32490" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sh2" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Lp</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>{USER}</t>
+  </si>
+  <si>
+    <t>{HOME}</t>
   </si>
 </sst>
 </file>
@@ -272,11 +278,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,6 +321,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,7 +343,10 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -724,9 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,19 +740,21 @@
     <col min="3" max="3" width="13.42578125"/>
     <col min="4" max="4" width="14.140625"/>
     <col min="5" max="5" width="26.85546875"/>
-    <col min="6" max="6" width="14.5703125" style="10"/>
+    <col min="6" max="6" width="14.5703125" style="9"/>
     <col min="7" max="7" width="18"/>
-    <col min="8" max="8" width="12.7109375" style="12"/>
+    <col min="8" max="8" width="12.7109375" style="11"/>
     <col min="9" max="9" width="29.140625"/>
-    <col min="10" max="10" width="14.7109375" style="14"/>
-    <col min="11" max="11" width="14.5703125" style="5"/>
+    <col min="10" max="10" width="14.7109375" style="13"/>
+    <col min="11" max="11" width="14.5703125" style="4"/>
     <col min="12" max="12" width="16.7109375"/>
     <col min="13" max="13" width="29.28515625"/>
     <col min="14" max="1009" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
@@ -793,7 +800,7 @@
       <c r="K2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -801,74 +808,77 @@
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="22"/>
       <c r="J3" s="24"/>
       <c r="K3" s="25"/>
+      <c r="L3" s="26" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="26">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="18">
         <f>K:K+J:J</f>
         <v>0</v>
       </c>

--- a/csv2xlsx/example/template5.xlsx
+++ b/csv2xlsx/example/template5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\da\Src\Git\go\csv2xlsx\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F238B-064B-4496-837C-01D404ED2BBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D2DAE-2EF6-4071-9FC9-70F91EF322A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1005" windowWidth="32490" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="660" windowWidth="32490" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sh2" sheetId="2" r:id="rId1"/>
@@ -142,13 +142,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -322,30 +322,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -752,52 +754,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -805,9 +807,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,11 +822,11 @@
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -874,7 +876,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10">
+        <v>43466</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="12"/>
       <c r="K5" s="5"/>
